--- a/src/main/resources/dataSource/PERSO.xlsx
+++ b/src/main/resources/dataSource/PERSO.xlsx
@@ -4155,7 +4155,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1">
-      <selection activeCell="G1" activeCellId="0" sqref="G1"/>
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4164,6 +4164,7 @@
     <col min="5" max="5" width="11.42578125" customWidth="1"/>
     <col min="7" max="7" width="19.140625" customWidth="1"/>
     <col min="8" max="8" width="13.85546875" customWidth="1"/>
+    <col min="10" max="10" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
